--- a/output/risk_analysis.xlsx
+++ b/output/risk_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,68 +453,2346 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>06</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2019-05-12 00:00:00 to 2019-05-12 01:30:00</t>
+          <t>2019-05-10 00:00:00 to 2019-05-10 03:30:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Drag</t>
+          <t>Torque</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>07</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2019-05-12 01:30:00 to 2019-05-12 01:45:00</t>
+          <t>2019-05-10 00:00:00 to 2019-05-10 03:30:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>String installation</t>
+          <t>Torque</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>104</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2019-05-12 18:00:00 to 2019-05-12 21:00:00</t>
+          <t>2019-08-15 14:30:00 to 2019-08-16 00:00:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Stuck</t>
+          <t>Torque, Stuck</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>117</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2019-05-13 02:00:00 to 2019-05-13 06:00:00</t>
+          <t>2019-08-28 16:00:00 to 2019-08-28 19:30:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mud gain</t>
+          <t>Torque, Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2019-08-28 21:30:00 to 2019-08-29 00:00:00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Torque, Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2019-08-29 21:30:00 to 2019-08-29 22:00:00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2019-08-29 22:00:00 to 2019-08-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2019-08-30 00:00:00 to 2019-08-30 00:45:00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2019-08-30 00:00:00 to 2019-08-30 00:45:00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2019-05-15 21:30:00 to 2019-05-15 22:00:00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2019-09-02 16:15:00 to 2019-09-02 17:45:00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2019-09-03 03:00:00 to 2019-09-03 03:30:00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2019-09-03 03:00:00 to 2019-09-03 03:30:00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2019-09-05 05:45:00 to 2019-09-05 09:45:00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2019-10-03 00:00:00 to 2019-10-03 03:30:00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2019-10-03 00:00:00 to 2019-10-03 03:30:00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2019-10-04 11:15:00 to 2019-10-04 15:15:00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2019-10-15 04:45:00 to 2019-10-15 06:00:00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2019-10-15 00:00:00 to 2019-10-15 04:45:00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2019-10-15 04:45:00 to 2019-10-15 06:00:00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2019-10-15 06:00:00 to 2019-10-15 08:30:00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2019-10-15 00:00:00 to 2019-10-15 04:45:00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2019-10-15 04:45:00 to 2019-10-15 06:00:00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2019-10-15 06:00:00 to 2019-10-15 08:30:00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2019-10-15 08:30:00 to 2019-10-15 10:30:00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2019-10-16 16:15:00 to 2019-10-16 18:00:00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2019-10-17 13:15:00 to 2019-10-17 15:00:00</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2019-10-18 10:45:00 to 2019-10-18 16:30:00</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2019-10-26 08:15:00 to 2019-10-27 00:00:00</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Torque, Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2019-10-27 00:00:00 to 2019-10-27 04:30:00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Torque, Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2019-10-27 00:00:00 to 2019-10-27 04:30:00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Torque, Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2019-10-27 12:45:00 to 2019-10-27 16:30:00</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2019-10-27 18:00:00 to 2019-10-27 21:15:00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2019-10-28 06:45:00 to 2019-10-28 18:30:00</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2019-11-01 06:30:00 to 2019-11-01 07:15:00</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2019-11-01 14:45:00 to 2019-11-01 15:15:00</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2019-11-13 22:00:00 to 2019-11-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2019-11-19 18:30:00 to 2019-11-19 18:45:00</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2019-11-24 00:00:00 to 2019-11-24 01:30:00</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Torque, Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2019-11-24 01:30:00 to 2019-11-24 06:00:00</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Torque, Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2019-11-24 00:00:00 to 2019-11-24 01:30:00</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Torque, Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2019-11-24 01:30:00 to 2019-11-24 18:00:00</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Torque, Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2019-11-25 00:00:00 to 2019-11-25 01:00:00</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2019-11-25 00:00:00 to 2019-11-25 01:00:00</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2019-11-26 11:45:00 to 2019-11-26 12:45:00</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2019-11-26 12:45:00 to 2019-11-26 22:45:00</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2019-11-27 21:00:00 to 2019-11-27 23:00:00</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2019-11-27 23:00:00 to 2019-11-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2019-11-28 00:00:00 to 2019-11-28 16:30:00</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2019-05-24 18:45:00 to 2019-05-24 19:45:00</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2019-05-24 19:45:00 to 2019-05-24 20:30:00</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2019-12-03 00:00:00 to 2019-12-03 00:30:00</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2019-12-03 00:00:00 to 2019-12-03 00:30:00</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2019-12-05 00:00:00 to 2019-12-05 06:00:00</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2019-12-05 00:00:00 to 2019-12-05 09:45:00</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2019-12-07 08:00:00 to 2019-12-07 23:30:00</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2019-12-27 04:15:00 to 2019-12-27 05:15:00</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2019-12-27 04:15:00 to 2019-12-27 05:15:00</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2019-12-27 06:15:00 to 2019-12-27 06:45:00</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2020-01-02 23:00:00 to 2020-01-02 23:30:00</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2020-01-02 23:30:00 to 2020-01-03 00:00:00</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2020-01-27 16:00:00 to 2020-01-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Kick</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2020-02-29 05:30:00 to 2020-02-29 06:00:00</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2020-02-29 05:30:00 to 2020-02-29 06:30:00</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Torque, Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2020-03-02 01:15:00 to 2020-03-02 06:00:00</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Torque, Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2020-03-02 01:15:00 to 2020-03-02 15:00:00</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Torque, Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2020-03-02 18:45:00 to 2020-03-02 22:45:00</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Torque, Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2020-03-03 00:00:00 to 2020-03-03 01:00:00</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2020-03-03 00:00:00 to 2020-03-03 01:00:00</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2020-03-29 00:00:00 to 2020-03-29 01:30:00</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2020-03-29 00:00:00 to 2020-03-29 01:30:00</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2020-04-01 14:30:00 to 2020-04-01 18:00:00</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2020-04-01 18:00:00 to 2020-04-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2020-04-02 00:00:00 to 2020-04-02 06:00:00</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2020-04-02 00:00:00 to 2020-04-02 15:45:00</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2020-04-02 15:45:00 to 2020-04-03 00:00:00</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2020-04-03 00:00:00 to 2020-04-03 06:00:00</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2020-04-03 00:00:00 to 2020-04-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2020-04-04 00:00:00 to 2020-04-04 06:00:00</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2020-04-04 00:00:00 to 2020-04-04 11:00:00</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2020-04-04 11:00:00 to 2020-04-04 16:30:00</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2020-04-04 18:00:00 to 2020-04-04 19:30:00</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2020-04-04 21:15:00 to 2020-04-04 21:30:00</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2020-04-04 21:30:00 to 2020-04-04 21:45:00</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2020-04-04 22:15:00 to 2020-04-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2020-04-05 00:00:00 to 2020-04-05 03:00:00</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2020-04-05 03:00:00 to 2020-04-05 06:00:00</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2020-04-05 00:00:00 to 2020-04-05 03:00:00</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2020-04-05 03:00:00 to 2020-04-05 08:00:00</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2020-04-05 08:00:00 to 2020-04-05 09:45:00</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2020-04-06 11:00:00 to 2020-04-06 16:45:00</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2020-04-07 01:30:00 to 2020-04-07 06:00:00</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2020-04-07 01:30:00 to 2020-04-07 08:30:00</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2020-04-08 06:15:00 to 2020-04-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2020-04-09 00:00:00 to 2020-04-09 06:00:00</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2020-04-09 00:00:00 to 2020-04-09 10:15:00</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2020-04-21 06:45:00 to 2020-04-21 11:00:00</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2020-04-21 11:00:00 to 2020-04-21 15:30:00</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2020-04-21 15:30:00 to 2020-04-21 19:30:00</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2020-05-07 14:00:00 to 2020-05-07 14:30:00</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2020-05-12 08:00:00 to 2020-05-12 09:00:00</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2020-05-12 20:30:00 to 2020-05-12 22:00:00</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2020-05-13 15:15:00 to 2020-05-13 16:15:00</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2020-05-14 16:30:00 to 2020-05-14 17:00:00</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2020-05-16 22:00:00 to 2020-05-16 23:30:00</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2020-05-18 00:00:00 to 2020-05-18 05:45:00</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Torque, Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2020-05-18 00:00:00 to 2020-05-18 05:45:00</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Torque, Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2020-05-19 11:45:00 to 2020-05-19 18:00:00</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2020-05-19 22:30:00 to 2020-05-20 00:00:00</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2020-05-20 00:00:00 to 2020-05-20 06:00:00</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2020-05-20 00:00:00 to 2020-05-20 14:00:00</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2020-05-20 15:00:00 to 2020-05-20 18:15:00</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2020-05-21 14:45:00 to 2020-05-21 22:15:00</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2020-05-25 00:00:00 to 2020-05-25 03:30:00</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2020-05-25 00:00:00 to 2020-05-25 03:30:00</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2020-05-28 11:15:00 to 2020-05-28 12:15:00</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Torque, Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2020-06-10 19:15:00 to 2020-06-10 20:15:00</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2020-06-14 13:00:00 to 2020-06-14 13:30:00</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2020-06-15 18:15:00 to 2020-06-15 19:00:00</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2020-06-17 20:45:00 to 2020-06-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2020-06-18 00:00:00 to 2020-06-18 06:00:00</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2020-06-18 00:00:00 to 2020-06-18 06:15:00</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2020-06-18 06:15:00 to 2020-06-18 15:00:00</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2019-06-21 08:15:00 to 2019-06-21 10:00:00</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2019-06-22 05:45:00 to 2019-06-22 06:00:00</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2019-06-22 05:45:00 to 2019-06-22 06:00:00</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2019-06-22 08:15:00 to 2019-06-22 15:30:00</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2019-06-24 17:30:00 to 2019-06-24 21:00:00</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2019-06-25 14:30:00 to 2019-06-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2019-07-17 13:30:00 to 2019-07-17 14:45:00</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2019-07-22 00:00:00 to 2019-07-22 00:45:00</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2019-07-22 00:00:00 to 2019-07-22 00:45:00</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2019-07-24 10:45:00 to 2019-07-24 15:30:00</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2019-07-27 06:30:00 to 2019-07-27 07:00:00</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Torque</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2019-08-03 14:00:00 to 2019-08-03 14:30:00</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2019-08-03 15:00:00 to 2019-08-03 16:15:00</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2019-08-03 17:15:00 to 2019-08-03 18:00:00</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Stuck</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2019-08-10 15:15:00 to 2019-08-10 16:00:00</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Torque</t>
         </is>
       </c>
     </row>
